--- a/Otro borrador para entrega 4.xlsx
+++ b/Otro borrador para entrega 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="11715" windowHeight="4935"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="11715" windowHeight="4935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,281 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+  <si>
+    <t>Entidades de base de datos</t>
+  </si>
+  <si>
+    <t>Entidades de servicios</t>
+  </si>
+  <si>
+    <t>Entidades de contratos de servicios</t>
+  </si>
+  <si>
+    <t>Entidades de controladores web</t>
+  </si>
+  <si>
+    <t>Entidades de modelos web</t>
+  </si>
+  <si>
+    <t>Entidades de LINQ</t>
+  </si>
+  <si>
+    <t>Entidades de vistas web</t>
+  </si>
+  <si>
+    <t>Entidades</t>
+  </si>
+  <si>
+    <t>base de datos</t>
+  </si>
+  <si>
+    <t>LINQ</t>
+  </si>
+  <si>
+    <t>servicios</t>
+  </si>
+  <si>
+    <t>contratos de servicios</t>
+  </si>
+  <si>
+    <t>controladores web</t>
+  </si>
+  <si>
+    <t>modelos web</t>
+  </si>
+  <si>
+    <t>vistas web</t>
+  </si>
+  <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
+    <t>Rubros</t>
+  </si>
+  <si>
+    <t>Posiciones</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Tipos de Identificadores</t>
+  </si>
+  <si>
+    <t>Bienes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Documentacion</t>
+  </si>
+  <si>
+    <t>Permisos posiciones</t>
+  </si>
+  <si>
+    <t>Movimientos</t>
+  </si>
+  <si>
+    <t>tab_proveedores</t>
+  </si>
+  <si>
+    <t>provService</t>
+  </si>
+  <si>
+    <t>IprovService</t>
+  </si>
+  <si>
+    <t>bienController</t>
+  </si>
+  <si>
+    <t>list&lt;proveedor&gt;</t>
+  </si>
+  <si>
+    <t>tab_rubros</t>
+  </si>
+  <si>
+    <t>rubService</t>
+  </si>
+  <si>
+    <t>IrubService</t>
+  </si>
+  <si>
+    <t>list&lt;rubros&gt;</t>
+  </si>
+  <si>
+    <t>tab_posiciones</t>
+  </si>
+  <si>
+    <t>tab_permisosPosiciones</t>
+  </si>
+  <si>
+    <t>posService</t>
+  </si>
+  <si>
+    <t>IposService</t>
+  </si>
+  <si>
+    <t>list&lt;posiciones&gt;</t>
+  </si>
+  <si>
+    <t>tab_usuarios</t>
+  </si>
+  <si>
+    <t>tab_TiposIdentificadores</t>
+  </si>
+  <si>
+    <t>tIdentService</t>
+  </si>
+  <si>
+    <t>ItIdentService</t>
+  </si>
+  <si>
+    <t>list&lt;TiposIdentificadores&gt;</t>
+  </si>
+  <si>
+    <t>tab_bienes</t>
+  </si>
+  <si>
+    <t>bienService</t>
+  </si>
+  <si>
+    <t>IbienService</t>
+  </si>
+  <si>
+    <t>tab_bienes_identificadores</t>
+  </si>
+  <si>
+    <t>tab_bienes_documentacion</t>
+  </si>
+  <si>
+    <t>newIdentViewData</t>
+  </si>
+  <si>
+    <t>newBienViewData</t>
+  </si>
+  <si>
+    <t>newDocViewData</t>
+  </si>
+  <si>
+    <t>tab_movimientos</t>
+  </si>
+  <si>
+    <t>movService</t>
+  </si>
+  <si>
+    <t>ImovService</t>
+  </si>
+  <si>
+    <t>movimiento</t>
+  </si>
+  <si>
+    <t>userViewData</t>
+  </si>
+  <si>
+    <t>userContext</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>cod_usuario</t>
+  </si>
+  <si>
+    <t>desc_usuario</t>
+  </si>
+  <si>
+    <t>cod_bien</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>nro_serie</t>
+  </si>
+  <si>
+    <t>fecha_carga</t>
+  </si>
+  <si>
+    <t>isAlquilado</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>comboProv</t>
+  </si>
+  <si>
+    <t>comboRub</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>comboPos</t>
+  </si>
+  <si>
+    <t>usuAlta</t>
+  </si>
+  <si>
+    <t>ipAlta</t>
+  </si>
+  <si>
+    <t>identificadores</t>
+  </si>
+  <si>
+    <t>documentacion</t>
+  </si>
+  <si>
+    <t>comboTipoIdent</t>
+  </si>
+  <si>
+    <t>nroIdent</t>
+  </si>
+  <si>
+    <t>gridIdentificadores</t>
+  </si>
+  <si>
+    <t>list&lt;identificadores_bienes&gt;</t>
+  </si>
+  <si>
+    <t>descDoc</t>
+  </si>
+  <si>
+    <t>ObsDoc</t>
+  </si>
+  <si>
+    <t>list&lt;documentacion_bienes&gt;</t>
+  </si>
+  <si>
+    <t>gridDoc</t>
+  </si>
+  <si>
+    <t>para el GET de la pantalla de carga de bienes</t>
+  </si>
+  <si>
+    <t>trazabilidadDC</t>
+  </si>
+  <si>
+    <t>newBienView.cshtml</t>
+  </si>
+  <si>
+    <t>newIdentView.cshtml</t>
+  </si>
+  <si>
+    <t>newDocView.cshtml</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26,18 +301,243 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -46,8 +546,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,74 +1656,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="37 Llamada de nube"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4429125" y="3781425"/>
-          <a:ext cx="2600325" cy="1571625"/>
-        </a:xfrm>
-        <a:prstGeom prst="cloudCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -1785"/>
-            <a:gd name="adj2" fmla="val 4318"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-AR" sz="2400"/>
-            <a:t>INTERNET</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>376237</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -1237,57 +1707,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>627191</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="43 Conector recto de flecha"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="38" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143251" y="3009900"/>
-          <a:ext cx="1293940" cy="1557338"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1296,8 +1715,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1307,7 +1726,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1409700" y="314325"/>
-          <a:ext cx="10067925" cy="3114675"/>
+          <a:ext cx="10067925" cy="4952440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1351,15 +1770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>405092</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>86284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>86285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1368,8 +1787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7419975" y="2876549"/>
-          <a:ext cx="1695450" cy="571501"/>
+          <a:off x="7263092" y="2943784"/>
+          <a:ext cx="3270437" cy="571501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,7 +1819,594 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-AR" sz="3200" b="1"/>
-            <a:t>LAN</a:t>
+            <a:t>INTRANET LAN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>376516</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319366</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8403</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="25 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8758516" y="4018428"/>
+          <a:ext cx="704850" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>CLIENTE INTERNO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8403</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="31 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="4018428"/>
+          <a:ext cx="704850" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>CLIENTE INTERNO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>354106</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296956</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8404</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="32 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6450106" y="4018429"/>
+          <a:ext cx="704850" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>CLIENTE INTERNO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>679077</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>621927</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8404</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="33 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5251077" y="4018429"/>
+          <a:ext cx="704850" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>CLIENTE INTERNO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>230842</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>173692</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8404</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="35 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4040842" y="4018429"/>
+          <a:ext cx="704850" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>CLIENTE INTERNO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>583268</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="44 Conector angular"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3263995" y="2889157"/>
+          <a:ext cx="1008529" cy="1250016"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269503</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="49 Conector angular"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3869113" y="2284039"/>
+          <a:ext cx="1008529" cy="2460251"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>706532</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="52 Conector angular"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4468627" y="1684525"/>
+          <a:ext cx="1008529" cy="3659280"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="54 Conector angular"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5034524" y="1118627"/>
+          <a:ext cx="1008528" cy="4791074"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>728941</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="56 Conector angular"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5622832" y="530319"/>
+          <a:ext cx="1008528" cy="5967690"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="57 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7978588" y="1658471"/>
+          <a:ext cx="560294" cy="392205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>LINQ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1695,14 +2701,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="Q6:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="17:17">
+      <c r="Q6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="17:17">
+      <c r="Q7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="17:17">
+      <c r="Q8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="17:17">
+      <c r="Q9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="17:17">
+      <c r="Q10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="17:17">
+      <c r="Q11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="17:17">
+      <c r="Q12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1710,24 +2755,539 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:12">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="3:12">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="E3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="16" spans="3:12" ht="15.75" thickBot="1"/>
+    <row r="17" spans="4:12" ht="15" customHeight="1">
+      <c r="D17" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="4:12">
+      <c r="D18" s="22"/>
+      <c r="E18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" ht="15.75" thickBot="1">
+      <c r="D19" s="22"/>
+      <c r="E19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" ht="15.75" thickBot="1">
+      <c r="G20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12">
+      <c r="G21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12">
+      <c r="G22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="G23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12">
+      <c r="G24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12">
+      <c r="G25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="G26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12">
+      <c r="G27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12">
+      <c r="G28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" ht="15.75" thickBot="1">
+      <c r="G29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>